--- a/茶话会采购清单.xlsx
+++ b/茶话会采购清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FJP_x\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjp_xiaoye999/Downloads/Patent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63A009-5289-4CFF-9B48-0242B1C30101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A81F984-2949-6A4C-9DE3-C8346B19857C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清单" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>方式一：实体店购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蜜桔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +159,22 @@
   </si>
   <si>
     <t>美汁源果粒橙(1.25L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好丽友 派 34g*12枚/盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜梅 128克/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜桔（单位：Kg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉（单位：Kg）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,6 +288,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -300,17 +308,107 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -462,107 +560,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,15 +1189,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>993323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1799172</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>3211287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1219,8 +1227,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9429751" y="5347609"/>
+          <a:off x="108858" y="9629323"/>
           <a:ext cx="1690314" cy="2217964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>552824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1852706</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4181041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B918B1-AB46-3E46-A9E2-152F89E9CBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9381909" y="4900706"/>
+          <a:ext cx="1779150" cy="3628217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47123</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>537883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1792940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4255746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1050D4-C90D-D740-A0AF-AB39C30B000D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11238064" y="4885765"/>
+          <a:ext cx="1745817" cy="3717863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,28 +1329,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B15D990-142C-4E48-A64B-8018716A8599}" name="表2" displayName="表2" ref="A3:E17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B15D990-142C-4E48-A64B-8018716A8599}" name="表2" displayName="表2" ref="A3:E17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:E17" xr:uid="{F78D98DC-1776-4F72-8E97-41D1E4DB5B1E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF686A41-D7C8-4A63-AEBA-EEFF25C8ADB1}" name="种类" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{2CD386AD-4BFB-4974-ACA2-E23FE7E0AC8C}" name="预购" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2CD5B400-D5DF-4FB0-96BB-1E491903F00D}" name="单价（元）" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{937A306E-35E8-426D-8D0C-926D4F20D74F}" name="数量" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{15593422-59DF-48E7-A631-2C5EC2B1E65A}" name="价格（元）" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{BF686A41-D7C8-4A63-AEBA-EEFF25C8ADB1}" name="种类" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2CD386AD-4BFB-4974-ACA2-E23FE7E0AC8C}" name="预购" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2CD5B400-D5DF-4FB0-96BB-1E491903F00D}" name="单价（元）" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{937A306E-35E8-426D-8D0C-926D4F20D74F}" name="数量" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{15593422-59DF-48E7-A631-2C5EC2B1E65A}" name="价格（元）" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3C0CA578-CE45-4E09-992A-DD6D56558163}" name="表3" displayName="表3" ref="H3:L17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3C0CA578-CE45-4E09-992A-DD6D56558163}" name="表3" displayName="表3" ref="H3:L17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="H3:L17" xr:uid="{8E41DAEF-47B3-499D-B3D9-2415D2872DE1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5550D447-AB57-4EDD-930A-30E535457EBC}" name="种类" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21280EC3-FEA3-4333-B468-80EB3AEBA809}" name="预购" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{BCD8FF68-11CF-48DD-8B6B-A8A5CD77EA03}" name="单价（元）" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{63475D9B-A534-432A-A595-1655B2510A8D}" name="数量" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D6D4354E-2C1C-4AE4-B4CD-BBBF90747503}" name="价格（元）" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5550D447-AB57-4EDD-930A-30E535457EBC}" name="种类" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{21280EC3-FEA3-4333-B468-80EB3AEBA809}" name="预购" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BCD8FF68-11CF-48DD-8B6B-A8A5CD77EA03}" name="单价（元）" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{63475D9B-A534-432A-A595-1655B2510A8D}" name="数量" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D6D4354E-2C1C-4AE4-B4CD-BBBF90747503}" name="价格（元）" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,38 +1622,38 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="9" max="9" width="29.5" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="24">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" ht="18">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -1566,53 +1662,53 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1">
@@ -1631,7 +1727,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1">
         <v>6.2</v>
@@ -1644,9 +1740,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
@@ -1676,7 +1772,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1688,14 +1784,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E14" si="0">C6*D6</f>
+        <f t="shared" ref="E6:E16" si="0">C6*D6</f>
         <v>11.8</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1">
         <v>10.4</v>
@@ -1708,7 +1804,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1727,7 +1823,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>9.9</v>
@@ -1740,7 +1836,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1">
         <v>13.8</v>
@@ -1776,7 +1872,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -1808,7 +1904,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1827,7 +1923,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1">
         <v>24.9</v>
@@ -1840,10 +1936,10 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>32.9</v>
@@ -1859,7 +1955,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1">
         <v>14.9</v>
@@ -1872,10 +1968,10 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>5.9</v>
@@ -1891,7 +1987,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1">
         <v>4.9000000000000004</v>
@@ -1904,7 +2000,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1923,20 +2019,20 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1">
-        <v>1.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K13" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1955,7 +2051,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1">
         <v>2.9</v>
@@ -1968,71 +2064,85 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>27.2</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>22.799999999999997</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
         <f>SUM(E4:E16)</f>
-        <v>293.46000000000004</v>
+        <v>343.46000000000004</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="2">
         <f>SUM(L4:L16)</f>
-        <v>303.29999999999995</v>
+        <v>296.59999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2046,7 +2156,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2060,7 +2170,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2090,63 +2200,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB3AC3-C91E-44CF-89F0-D2421A9E589F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="342.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="342.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="338.25" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="338.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    <row r="3" spans="1:7" ht="258" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
